--- a/질병 별 참고 데이터.xlsx
+++ b/질병 별 참고 데이터.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCC\OneDrive - 한양대학교\바탕 화면\수업\석박수업\4기\헬스케어데이터사이언스\dev\hell_DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D58E8-05F0-45A6-BB42-4A38FB530D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7DAB3B-EC6E-4431-AD88-0F4D68ACA127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5BE5F9E-55AD-4357-9C92-BCABFBF09DCF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>연령대코드(5세단위)</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>당뇨병</t>
-  </si>
-  <si>
-    <t>당뇨병성족부궤양</t>
   </si>
   <si>
     <t>비염</t>
@@ -514,67 +511,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69627B81-7445-472E-B9AA-B70E44461222}">
-  <dimension ref="B1:AR12"/>
+  <dimension ref="B1:AR11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,739 +923,682 @@
   <sheetData>
     <row r="1" spans="2:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
+      <c r="AI2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
+      <c r="D4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
+    <row r="11" spans="2:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="D11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-    </row>
-    <row r="12" spans="2:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="AI2:AR12"/>
+    <mergeCell ref="AI2:AR11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
